--- a/data/trans_camb/P3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P3_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>-8,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,22</t>
+          <t>-11,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-23,89</t>
+          <t>-10,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>-22,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>-9,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-16,37</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-9,71</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-20,32</t>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-7,48</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-9,67</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-8,44</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-14,4</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-2,51</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 9,94</t>
+          <t>-12,2; 10,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 3,39</t>
+          <t>-19,55; 2,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 0,51</t>
+          <t>-23,27; 0,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,43; -12,0</t>
+          <t>-23,76; 2,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 15,92</t>
+          <t>-36,33; -9,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 5,06</t>
+          <t>-21,22; 5,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 3,44</t>
+          <t>-8,2; 14,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,46; -4,29</t>
+          <t>-16,32; 5,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 8,93</t>
+          <t>-19,03; 3,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 0,74</t>
+          <t>-17,8; 6,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-17,64; -0,97</t>
+          <t>-15,86; 7,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-28,58; -11,22</t>
+          <t>-8,7; 17,15</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 9,41</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-15,81; 0,2</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-17,28; -1,31</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-16,92; 0,5</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-23,91; -5,67</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-11,52; 6,6</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>-2,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>-13,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,01%</t>
+          <t>-17,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-38,37%</t>
+          <t>-16,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>-44,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,83%</t>
+          <t>-24,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-11,52%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-14,5%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-11,32%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-11,12%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,37%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-12,96%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-16,75%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>-14,62%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-31,09%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-11,97%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-16,83%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-35,21%</t>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-29,23%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-6,72%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 17,43</t>
+          <t>-18,15; 17,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,68; 5,86</t>
+          <t>-29,77; 4,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 1,02</t>
+          <t>-35,68; 1,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,14; -20,54</t>
+          <t>-34,77; 5,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 33,86</t>
+          <t>-62,55; -21,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 10,89</t>
+          <t>-48,76; 16,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,88; 6,93</t>
+          <t>-14,12; 32,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,74; -8,72</t>
+          <t>-28,74; 10,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 16,62</t>
+          <t>-32,15; 7,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 1,16</t>
+          <t>-31,3; 12,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-29,26; -1,56</t>
+          <t>-31,23; 19,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-47,24; -20,76</t>
+          <t>-17,93; 58,91</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-10,58; 18,12</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-26,2; 0,25</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-29,11; -3,2</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-28,33; 0,03</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-44,49; -12,72</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-27,1; 20,31</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-9,76</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-5,34</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-6,4</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,97</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-2,28</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-8,17</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
           <t>0,91</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-9,43</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-2,27</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>2,24</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-6,55</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 12,81</t>
+          <t>-10,91; 12,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 14,13</t>
+          <t>-8,51; 14,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 13,64</t>
+          <t>-10,49; 13,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 7,54</t>
+          <t>-10,41; 18,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 4,05</t>
+          <t>-24,01; 6,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 10,44</t>
+          <t>-14,49; 11,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 9,97</t>
+          <t>-15,1; 4,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 1,3</t>
+          <t>-9,18; 9,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 5,45</t>
+          <t>-9,6; 9,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 9,87</t>
+          <t>-10,18; 11,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 9,1</t>
+          <t>-17,58; 4,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 2,14</t>
+          <t>-6,37; 14,3</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-10,59; 5,6</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,13; 9,86</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; 8,29</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; 11,94</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-17,72; 0,43</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 8,71</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,86%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,81%</t>
+          <t>-22,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>-2,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>-12,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-22,8%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>-15,49%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-16,31%</t>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-5,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-19,13%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>2,71%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 36,79</t>
+          <t>-25,62; 39,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 42,86</t>
+          <t>-18,72; 43,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 42,81</t>
+          <t>-23,18; 43,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 22,05</t>
+          <t>-23,33; 52,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,37; 11,23</t>
+          <t>-45,58; 19,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 28,16</t>
+          <t>-34,21; 43,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 26,7</t>
+          <t>-33,57; 12,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,2; 4,91</t>
+          <t>-19,76; 27,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 15,29</t>
+          <t>-20,89; 25,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 27,53</t>
+          <t>-22,62; 30,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 25,27</t>
+          <t>-37,99; 12,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-32,55; 5,48</t>
+          <t>-17,36; 55,13</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-24,33; 15,43</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-11,42; 26,38</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-14,64; 23,01</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-14,57; 31,47</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-37,08; 0,57</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-20,07; 28,97</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-15,77</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-10,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-20,11</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-18,55</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-17,81</t>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>-14,21</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 9,96</t>
+          <t>-12,97; 7,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 7,37</t>
+          <t>-12,91; 6,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 9,13</t>
+          <t>-11,14; 8,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,91; -6,17</t>
+          <t>-12,68; 8,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 9,84</t>
+          <t>-20,16; -0,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 6,93</t>
+          <t>-5,25; 13,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 6,71</t>
+          <t>-8,77; 7,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-28,17; -12,65</t>
+          <t>-7,63; 6,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 6,3</t>
+          <t>-8,04; 5,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 4,29</t>
+          <t>-7,06; 8,71</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 4,8</t>
+          <t>-26,64; -9,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-24,2; -12,56</t>
+          <t>-5,88; 10,24</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,64; 5,24</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-7,85; 4,16</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-7,41; 5,06</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-6,92; 6,03</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-20,55; -7,62</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 9,4</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>-5,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>-7,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,4%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-34,97%</t>
+          <t>-3,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>-23,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,14%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-45,04%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>-2,02%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-3,42%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>-41,03%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-39,69%</t>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-2,48%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-4,21%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-2,87%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-1,17%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>-32,04%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>11,38%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,41; 23,74</t>
+          <t>-25,83; 17,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 17,4</t>
+          <t>-25,82; 15,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 22,56</t>
+          <t>-22,43; 20,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,49; -15,89</t>
+          <t>-25,17; 20,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 23,54</t>
+          <t>-41,41; -0,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 17,15</t>
+          <t>-16,14; 52,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 16,45</t>
+          <t>-17,82; 18,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,63; -30,26</t>
+          <t>-16,0; 15,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 14,63</t>
+          <t>-17,26; 13,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 10,07</t>
+          <t>-14,63; 20,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 11,39</t>
+          <t>-55,16; -22,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-50,12; -29,73</t>
+          <t>-21,64; 49,42</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-15,91; 12,45</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-16,57; 9,88</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-15,53; 12,22</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-14,33; 14,05</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-43,08; -18,37</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-9,36; 38,59</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-20,82</t>
+          <t>-7,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-10,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-16,05</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-14,72</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-18,47</t>
+          <t>-3,5</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-2,61</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-3,8</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-3,89</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-6,1</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-12,67</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 5,29</t>
+          <t>-13,33; 5,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 5,25</t>
+          <t>-14,75; 3,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 5,18</t>
+          <t>-13,31; 3,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-29,78; -11,71</t>
+          <t>-16,22; 0,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 6,48</t>
+          <t>-20,28; -1,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 5,51</t>
+          <t>-7,64; 11,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 3,78</t>
+          <t>-8,74; 6,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-25,0; -8,23</t>
+          <t>-10,21; 5,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 3,9</t>
+          <t>-11,27; 3,62</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 2,78</t>
+          <t>-12,21; 2,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 2,36</t>
+          <t>-23,36; -5,99</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-24,9; -12,64</t>
+          <t>-12,17; 5,15</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-8,41; 3,65</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; 1,97</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-10,0; 1,23</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-12,28; -0,12</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-18,57; -6,23</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 6,41</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,32%</t>
+          <t>-7,82%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,77%</t>
+          <t>-9,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,93%</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-38,74%</t>
+          <t>-13,84%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>-23,14%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-6,16%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-30,92%</t>
+          <t>-5,28%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>-6,85%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>-9,33%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>-31,27%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>-34,99%</t>
+          <t>-9,77%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-4,94%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-7,21%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-7,37%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-11,55%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-27,14%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-0,87%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 10,56</t>
+          <t>-22,48; 9,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 10,66</t>
+          <t>-24,65; 6,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 10,5</t>
+          <t>-22,65; 7,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,34; -23,83</t>
+          <t>-28,11; 1,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 13,06</t>
+          <t>-39,77; -3,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 11,36</t>
+          <t>-20,79; 41,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 7,95</t>
+          <t>-16,06; 13,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-44,89; -16,71</t>
+          <t>-18,39; 10,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 7,67</t>
+          <t>-20,12; 7,68</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 5,55</t>
+          <t>-22,28; 5,0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 4,45</t>
+          <t>-45,85; -13,43</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-44,86; -25,13</t>
+          <t>-29,84; 16,54</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-15,33; 7,32</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-17,5; 3,93</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-18,18; 2,5</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-22,46; -0,19</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-37,81; -14,32</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-17,81; 20,9</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-19,13</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>-17,24</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-15,24</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>-17,11</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>-17,33</t>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>-17,17</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 8,42</t>
+          <t>-12,84; 9,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 10,48</t>
+          <t>-8,53; 10,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 8,98</t>
+          <t>-10,04; 9,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-30,25; -9,37</t>
+          <t>-10,52; 8,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 13,48</t>
+          <t>-26,88; -7,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 13,96</t>
+          <t>-9,7; 11,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 14,63</t>
+          <t>-6,6; 12,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-23,88; -5,79</t>
+          <t>-4,72; 13,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 8,02</t>
+          <t>-4,97; 13,96</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 8,54</t>
+          <t>-7,76; 11,8</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 9,38</t>
+          <t>-26,0; -7,02</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>-24,21; -10,52</t>
+          <t>-8,44; 8,74</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; 7,3</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 8,62</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 9,08</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-6,52; 7,7</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-24,65; -10,38</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 7,72</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,59%</t>
+          <t>-2,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>-0,25%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-34,39%</t>
+          <t>-1,33%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>-31,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-32,3%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>-34,89%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>-33,68%</t>
+          <t>-0,07%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>-33,08%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 16,55</t>
+          <t>-20,75; 16,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 20,65</t>
+          <t>-13,96; 19,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 17,39</t>
+          <t>-16,57; 19,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-49,72; -18,67</t>
+          <t>-17,69; 16,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 32,86</t>
+          <t>-45,84; -13,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 32,9</t>
+          <t>-23,04; 38,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 35,68</t>
+          <t>-13,12; 29,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-46,79; -12,97</t>
+          <t>-8,92; 32,08</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 16,51</t>
+          <t>-8,45; 32,96</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 17,59</t>
+          <t>-15,23; 28,53</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 19,55</t>
+          <t>-48,71; -16,34</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>-44,29; -21,71</t>
+          <t>-23,94; 30,9</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-10,95; 15,21</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; 17,91</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 19,14</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-12,23; 15,94</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-43,19; -20,6</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-15,45; 24,63</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-23,7</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-28,68</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,6</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-14,23</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-9,61</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>-18,25</t>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>-17,81</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 14,06</t>
+          <t>-8,73; 11,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 15,41</t>
+          <t>-5,67; 15,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 14,48</t>
+          <t>-6,01; 14,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-33,74; -14,12</t>
+          <t>-2,43; 18,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 8,34</t>
+          <t>-39,8; -15,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 3,82</t>
+          <t>-6,32; 14,85</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 5,19</t>
+          <t>-10,8; 7,09</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-25,72; -3,01</t>
+          <t>-13,14; 4,82</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 8,08</t>
+          <t>-12,53; 5,17</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 5,47</t>
+          <t>-13,67; 8,55</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 6,42</t>
+          <t>-20,22; 2,55</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-25,55; -10,27</t>
+          <t>-10,32; 12,72</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 6,31</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 7,53</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-6,86; 7,98</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 9,47</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-26,52; -8,5</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-6,72; 10,54</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-44,4%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>-46,23%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-8,98%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-8,33%</t>
+          <t>-3,85%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-27,81%</t>
+          <t>-8,25%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>-7,14%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>-6,84%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>-20,16%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>-35,02%</t>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-1,38%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-0,68%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-0,3%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>-33,04%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 29,21</t>
+          <t>-15,42; 24,22</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 33,95</t>
+          <t>-9,84; 31,29</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 29,72</t>
+          <t>-10,31; 29,78</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-58,79; -27,33</t>
+          <t>-3,93; 38,52</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 17,87</t>
+          <t>-59,51; -28,54</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 8,1</t>
+          <t>-19,09; 60,95</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-28,56; 10,78</t>
+          <t>-19,7; 15,27</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-47,16; -6,93</t>
+          <t>-24,06; 10,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 16,31</t>
+          <t>-23,06; 10,95</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 11,1</t>
+          <t>-25,46; 17,19</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 12,77</t>
+          <t>-38,04; 6,52</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>-47,42; -20,49</t>
+          <t>-24,2; 42,77</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-15,53; 12,61</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-12,55; 15,43</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-12,61; 15,95</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-10,49; 19,02</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-45,58; -17,38</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-17,16; 35,25</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-17,77</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-16,05</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-15,39</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-12,23</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>-16,55</t>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-1,92</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>-14,09</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 3,68</t>
+          <t>-6,19; 2,99</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 3,35</t>
+          <t>-5,91; 2,37</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 2,48</t>
+          <t>-5,96; 2,46</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-22,11; -13,44</t>
+          <t>-6,38; 3,36</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 4,0</t>
+          <t>-20,51; -10,76</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 1,87</t>
+          <t>-4,15; 4,61</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 1,89</t>
+          <t>-4,06; 3,28</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-19,41; -11,25</t>
+          <t>-5,17; 2,16</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,52</t>
+          <t>-5,6; 1,73</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 1,47</t>
+          <t>-6,02; 1,97</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 1,09</t>
+          <t>-16,7; -7,88</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>-19,57; -13,52</t>
+          <t>-3,39; 5,39</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 1,74</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 0,98</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 1,03</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 1,7</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-17,3; -10,76</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 3,99</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>-3,06%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>-3,97%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-34,75%</t>
+          <t>-2,34%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-0,0%</t>
+          <t>-32,12%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-3,64%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-31,88%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>-4,23%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-3,45%</t>
+          <t>-26,45%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>-33,31%</t>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-2,04%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-3,2%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-3,86%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>-3,29%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>-29,33%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 7,44</t>
+          <t>-11,51; 6,03</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 6,79</t>
+          <t>-10,87; 4,86</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 5,11</t>
+          <t>-11,35; 4,75</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-41,98; -27,29</t>
+          <t>-12,07; 6,78</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 8,68</t>
+          <t>-39,1; -22,77</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 4,08</t>
+          <t>-11,95; 14,76</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 4,17</t>
+          <t>-8,12; 7,0</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-39,24; -24,0</t>
+          <t>-10,42; 4,64</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 5,18</t>
+          <t>-11,17; 3,77</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 3,05</t>
+          <t>-11,93; 4,29</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 2,15</t>
+          <t>-34,46; -17,9</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>-38,25; -27,87</t>
+          <t>-9,68; 18,02</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; 3,61</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-8,75; 2,01</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 2,16</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-9,09; 3,47</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-34,93; -23,3</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 12,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
